--- a/Code/Results/Cases/Case_5_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_222/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.108664671039378</v>
+        <v>0.5386712677833714</v>
       </c>
       <c r="C2">
-        <v>0.09484895907664992</v>
+        <v>0.1051590893890264</v>
       </c>
       <c r="D2">
-        <v>0.06809303317508153</v>
+        <v>0.04124891684684684</v>
       </c>
       <c r="E2">
-        <v>0.06335272080477239</v>
+        <v>0.09797392431061525</v>
       </c>
       <c r="F2">
-        <v>0.5171441020886007</v>
+        <v>0.8658998088534631</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.3621076045799363</v>
+        <v>0.7959050165789705</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.958196708695283</v>
+        <v>0.3331153853719968</v>
       </c>
       <c r="L2">
-        <v>0.2623406713680794</v>
+        <v>0.2056283115882991</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7806813338671645</v>
+        <v>1.617569122752696</v>
       </c>
       <c r="O2">
-        <v>1.550889257650908</v>
+        <v>3.05839678202031</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9640686243509435</v>
+        <v>0.4977341740913062</v>
       </c>
       <c r="C3">
-        <v>0.09033398612726984</v>
+        <v>0.1035833427660435</v>
       </c>
       <c r="D3">
-        <v>0.06179085423979558</v>
+        <v>0.03904359781390809</v>
       </c>
       <c r="E3">
-        <v>0.05896202445789456</v>
+        <v>0.09743708183724209</v>
       </c>
       <c r="F3">
-        <v>0.4925794818839364</v>
+        <v>0.8657033429486845</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.3615160248210678</v>
+        <v>0.8011007215043549</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8336550341259965</v>
+        <v>0.2959267575989486</v>
       </c>
       <c r="L3">
-        <v>0.2316317993426509</v>
+        <v>0.1982594525952663</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8184776129537616</v>
+        <v>1.633924489781511</v>
       </c>
       <c r="O3">
-        <v>1.515411289254814</v>
+        <v>3.070715944059202</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8755243074249393</v>
+        <v>0.4727407509763282</v>
       </c>
       <c r="C4">
-        <v>0.0875546452210898</v>
+        <v>0.1026049566044236</v>
       </c>
       <c r="D4">
-        <v>0.05790452944038549</v>
+        <v>0.03767506608364357</v>
       </c>
       <c r="E4">
-        <v>0.05634750678409972</v>
+        <v>0.09715595846729386</v>
       </c>
       <c r="F4">
-        <v>0.4783986427025226</v>
+        <v>0.86606032163413</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.3618162348671845</v>
+        <v>0.8046630018676808</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7572551413563247</v>
+        <v>0.2731019816422133</v>
       </c>
       <c r="L4">
-        <v>0.2129952788798306</v>
+        <v>0.1938435960835108</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8426848147380244</v>
+        <v>1.644483976683105</v>
       </c>
       <c r="O4">
-        <v>1.496508224051311</v>
+        <v>3.079838884716651</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8394900065639774</v>
+        <v>0.4625921552019747</v>
       </c>
       <c r="C5">
-        <v>0.08641996998568402</v>
+        <v>0.1022035415682012</v>
       </c>
       <c r="D5">
-        <v>0.05631634981607903</v>
+        <v>0.03711376696978874</v>
       </c>
       <c r="E5">
-        <v>0.05530154217357008</v>
+        <v>0.09705361697474757</v>
       </c>
       <c r="F5">
-        <v>0.4728359623552763</v>
+        <v>0.8663259775372794</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.3620993398451162</v>
+        <v>0.8062082719799015</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7261295031383384</v>
+        <v>0.2638035503759539</v>
       </c>
       <c r="L5">
-        <v>0.2054512075093555</v>
+        <v>0.1920715128021158</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8527953423188865</v>
+        <v>1.648917129387678</v>
       </c>
       <c r="O5">
-        <v>1.489498788907952</v>
+        <v>3.083948746751872</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8335091213243686</v>
+        <v>0.4609092090261413</v>
       </c>
       <c r="C6">
-        <v>0.0862314251596743</v>
+        <v>0.1021367235026247</v>
       </c>
       <c r="D6">
-        <v>0.05605235655620078</v>
+        <v>0.0370203462697134</v>
       </c>
       <c r="E6">
-        <v>0.05512900841365465</v>
+        <v>0.09703736188987477</v>
       </c>
       <c r="F6">
-        <v>0.4719250338490966</v>
+        <v>0.8663773508395991</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.3621558868777299</v>
+        <v>0.8064705181707481</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7209613271741944</v>
+        <v>0.2622597409564378</v>
       </c>
       <c r="L6">
-        <v>0.2042014383669084</v>
+        <v>0.1917789181870972</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8544888803707491</v>
+        <v>1.649661107784145</v>
       </c>
       <c r="O6">
-        <v>1.48837590680661</v>
+        <v>3.084654878968749</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8750381559727884</v>
+        <v>0.4726037350574757</v>
       </c>
       <c r="C7">
-        <v>0.08753935133442781</v>
+        <v>0.1025995539479183</v>
       </c>
       <c r="D7">
-        <v>0.05788312912532234</v>
+        <v>0.03766751079787412</v>
       </c>
       <c r="E7">
-        <v>0.05633332297731286</v>
+        <v>0.09715452875114394</v>
       </c>
       <c r="F7">
-        <v>0.4783227611243532</v>
+        <v>0.8660634176283253</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.3618194097977678</v>
+        <v>0.8046834628297326</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7568353501145992</v>
+        <v>0.2729765674920372</v>
       </c>
       <c r="L7">
-        <v>0.2128933384644824</v>
+        <v>0.1938195860272032</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.84282018042965</v>
+        <v>1.644543237036874</v>
       </c>
       <c r="O7">
-        <v>1.496410922993135</v>
+        <v>3.079892723548085</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.058751247756334</v>
+        <v>0.5245270623259159</v>
       </c>
       <c r="C8">
-        <v>0.09329350107497447</v>
+        <v>0.1046180392472067</v>
       </c>
       <c r="D8">
-        <v>0.06592336087112471</v>
+        <v>0.04049153719944343</v>
       </c>
       <c r="E8">
-        <v>0.06182130453060708</v>
+        <v>0.09777876813336306</v>
       </c>
       <c r="F8">
-        <v>0.508480447091074</v>
+        <v>0.8657329883881104</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.3617621995431719</v>
+        <v>0.7976192937273936</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9152344895450426</v>
+        <v>0.3202911507577824</v>
       </c>
       <c r="L8">
-        <v>0.2517040054706996</v>
+        <v>0.2030650309881565</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7935024755366169</v>
+        <v>1.623101113967246</v>
       </c>
       <c r="O8">
-        <v>1.538039728504714</v>
+        <v>3.062320980859909</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.421476427470253</v>
+        <v>0.6274510899455379</v>
       </c>
       <c r="C9">
-        <v>0.10453490122066</v>
+        <v>0.1084893561268885</v>
       </c>
       <c r="D9">
-        <v>0.08157013480579423</v>
+        <v>0.04591390937511619</v>
       </c>
       <c r="E9">
-        <v>0.07327642693739733</v>
+        <v>0.09938689841987625</v>
       </c>
       <c r="F9">
-        <v>0.5752839214225673</v>
+        <v>0.8688720300209809</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.3672010855017049</v>
+        <v>0.7867171728087605</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.226870343587052</v>
+        <v>0.4131286422376093</v>
       </c>
       <c r="L9">
-        <v>0.3297681772323386</v>
+        <v>0.2220544979290793</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7049877532430244</v>
+        <v>1.585155804068846</v>
       </c>
       <c r="O9">
-        <v>1.643984341226286</v>
+        <v>3.040226325272158</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.69034193306598</v>
+        <v>0.7037154811095263</v>
       </c>
       <c r="C10">
-        <v>0.1127900303670515</v>
+        <v>0.1112799672338554</v>
       </c>
       <c r="D10">
-        <v>0.09301251797145227</v>
+        <v>0.04982651940346727</v>
       </c>
       <c r="E10">
-        <v>0.08218504167309248</v>
+        <v>0.1008016338701339</v>
       </c>
       <c r="F10">
-        <v>0.6297835484925116</v>
+        <v>0.873485142868283</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.375001025440973</v>
+        <v>0.7805042750362077</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.457156874499674</v>
+        <v>0.4813499111045871</v>
       </c>
       <c r="L10">
-        <v>0.3886418432915093</v>
+        <v>0.2365275647395748</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6453311120625074</v>
+        <v>1.559775730341777</v>
       </c>
       <c r="O10">
-        <v>1.738778496815343</v>
+        <v>3.031525887103271</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.813377648387842</v>
+        <v>0.7385453508412354</v>
       </c>
       <c r="C11">
-        <v>0.1165500380004829</v>
+        <v>0.1125377160015546</v>
       </c>
       <c r="D11">
-        <v>0.09821110156283197</v>
+        <v>0.05159085897007287</v>
       </c>
       <c r="E11">
-        <v>0.0863611669117077</v>
+        <v>0.1014957141737547</v>
       </c>
       <c r="F11">
-        <v>0.6559293195200411</v>
+        <v>0.8760844041170586</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.379474165531569</v>
+        <v>0.7780676722789011</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.562377646020053</v>
+        <v>0.5123847872752663</v>
       </c>
       <c r="L11">
-        <v>0.4158322687898988</v>
+        <v>0.2432245889232547</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6194477623627241</v>
+        <v>1.548771592419325</v>
       </c>
       <c r="O11">
-        <v>1.786088294984523</v>
+        <v>3.029202715278188</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.860090576217061</v>
+        <v>0.7517535861377951</v>
       </c>
       <c r="C12">
-        <v>0.1179750070145857</v>
+        <v>0.1130122920420931</v>
       </c>
       <c r="D12">
-        <v>0.1001791115735173</v>
+        <v>0.05225671512011587</v>
       </c>
       <c r="E12">
-        <v>0.08796175860901556</v>
+        <v>0.1017657882382466</v>
       </c>
       <c r="F12">
-        <v>0.6660402121810876</v>
+        <v>0.8771406247382529</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.3813097954726388</v>
+        <v>0.7772009957414667</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.60230313244017</v>
+        <v>0.5241365198425854</v>
       </c>
       <c r="L12">
-        <v>0.4261940638118631</v>
+        <v>0.2457767771812343</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6098348855961158</v>
+        <v>1.544682453440031</v>
       </c>
       <c r="O12">
-        <v>1.804650102745313</v>
+        <v>3.028557945559186</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.850024397309113</v>
+        <v>0.7489081269085887</v>
       </c>
       <c r="C13">
-        <v>0.1176680561879522</v>
+        <v>0.1129101598233362</v>
       </c>
       <c r="D13">
-        <v>0.09975528508840625</v>
+        <v>0.05211341209227527</v>
       </c>
       <c r="E13">
-        <v>0.08761616586099663</v>
+        <v>0.1017073012718761</v>
       </c>
       <c r="F13">
-        <v>0.6638530524118238</v>
+        <v>0.8769099504141309</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.3809080102095592</v>
+        <v>0.7773851592540097</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.593700640351415</v>
+        <v>0.5216056058191896</v>
       </c>
       <c r="L13">
-        <v>0.4239594483232167</v>
+        <v>0.2452264001988311</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6118966679515614</v>
+        <v>1.545559657896682</v>
       </c>
       <c r="O13">
-        <v>1.800622988362335</v>
+        <v>3.028686359774269</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.817218200831178</v>
+        <v>0.7396316254565534</v>
       </c>
       <c r="C14">
-        <v>0.1166672455247451</v>
+        <v>0.1125767939738012</v>
       </c>
       <c r="D14">
-        <v>0.09837302036590501</v>
+        <v>0.05164568483122878</v>
       </c>
       <c r="E14">
-        <v>0.0864924556600748</v>
+        <v>0.1015177883393719</v>
       </c>
       <c r="F14">
-        <v>0.6567568471632796</v>
+        <v>0.8761698586956754</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.3796222909840239</v>
+        <v>0.7779952478446859</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.565660638346543</v>
+        <v>0.5133516228709993</v>
       </c>
       <c r="L14">
-        <v>0.4166833902750966</v>
+        <v>0.2434342354853953</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6186530771576706</v>
+        <v>1.548433615247713</v>
       </c>
       <c r="O14">
-        <v>1.787602162102047</v>
+        <v>3.029144961230287</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.797139878415749</v>
+        <v>0.7339519419436442</v>
       </c>
       <c r="C15">
-        <v>0.1160543823082136</v>
+        <v>0.1123723749368679</v>
       </c>
       <c r="D15">
-        <v>0.09752627906610201</v>
+        <v>0.05135889309566721</v>
       </c>
       <c r="E15">
-        <v>0.0858066925236507</v>
+        <v>0.1014026485114137</v>
       </c>
       <c r="F15">
-        <v>0.6524380460303973</v>
+        <v>0.87572589740806</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.3788534797243486</v>
+        <v>0.7783762384658885</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.548496270473777</v>
+        <v>0.5082957368846337</v>
       </c>
       <c r="L15">
-        <v>0.4122353118872013</v>
+        <v>0.2423385857288167</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6228163829504254</v>
+        <v>1.550204141776784</v>
       </c>
       <c r="O15">
-        <v>1.779712106575261</v>
+        <v>3.029456464170408</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.682317355538714</v>
+        <v>0.7014419558196607</v>
       </c>
       <c r="C16">
-        <v>0.1125444380606808</v>
+        <v>0.1111975328245194</v>
       </c>
       <c r="D16">
-        <v>0.09267267634632503</v>
+        <v>0.04971090081737373</v>
       </c>
       <c r="E16">
-        <v>0.08191472744970696</v>
+        <v>0.1007572885719448</v>
       </c>
       <c r="F16">
-        <v>0.6281033943370318</v>
+        <v>0.873325345270672</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.3747280422133201</v>
+        <v>0.7806713520751742</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.45029094219629</v>
+        <v>0.4793216714207915</v>
       </c>
       <c r="L16">
-        <v>0.3868736621820688</v>
+        <v>0.2360921667980733</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6470485843893554</v>
+        <v>1.560505773939872</v>
       </c>
       <c r="O16">
-        <v>1.735774689228691</v>
+        <v>3.031710597432664</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.612075761686668</v>
+        <v>0.681532637566562</v>
       </c>
       <c r="C17">
-        <v>0.1103927206277504</v>
+        <v>0.1104737895485854</v>
       </c>
       <c r="D17">
-        <v>0.08969371052605624</v>
+        <v>0.04869591416968433</v>
       </c>
       <c r="E17">
-        <v>0.07955975923834657</v>
+        <v>0.1003743021107226</v>
       </c>
       <c r="F17">
-        <v>0.6135322300398087</v>
+        <v>0.8719808859547271</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.3724401661512644</v>
+        <v>0.7821791189718752</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.390173340341192</v>
+        <v>0.4615467685254089</v>
       </c>
       <c r="L17">
-        <v>0.3714243230607792</v>
+        <v>0.2322891009502683</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6622412737845877</v>
+        <v>1.566964180069243</v>
       </c>
       <c r="O17">
-        <v>1.709923770450104</v>
+        <v>3.033512048426388</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.571742017327836</v>
+        <v>0.6700942471656504</v>
       </c>
       <c r="C18">
-        <v>0.1091555230182806</v>
+        <v>0.1100564102531081</v>
       </c>
       <c r="D18">
-        <v>0.08797964211536424</v>
+        <v>0.04811066097736472</v>
       </c>
       <c r="E18">
-        <v>0.07821678332206972</v>
+        <v>0.1001587740178742</v>
       </c>
       <c r="F18">
-        <v>0.605277712549487</v>
+        <v>0.8712547240074144</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.3712107420457471</v>
+        <v>0.7830830260889599</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.355637890174478</v>
+        <v>0.4513232142533354</v>
       </c>
       <c r="L18">
-        <v>0.3625763004095148</v>
+        <v>0.2301123346781395</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6710972934181347</v>
+        <v>1.570729839693519</v>
       </c>
       <c r="O18">
-        <v>1.695446324637686</v>
+        <v>3.034702067418607</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.558096764058604</v>
+        <v>0.6662236472069765</v>
       </c>
       <c r="C19">
-        <v>0.1087366868315129</v>
+        <v>0.1099149043042829</v>
       </c>
       <c r="D19">
-        <v>0.08739916613451726</v>
+        <v>0.04791225445403313</v>
       </c>
       <c r="E19">
-        <v>0.07776401487111073</v>
+        <v>0.1000866173657435</v>
       </c>
       <c r="F19">
-        <v>0.6025041354710936</v>
+        <v>0.8710169556729284</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.3708090791406811</v>
+        <v>0.7833953739392854</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.343951681163787</v>
+        <v>0.4478617298171343</v>
       </c>
       <c r="L19">
-        <v>0.359586848255887</v>
+        <v>0.2293771523636821</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6741157447238741</v>
+        <v>1.57201357781163</v>
       </c>
       <c r="O19">
-        <v>1.690610410553205</v>
+        <v>3.035131418195959</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.619546005440355</v>
+        <v>0.6836506864755734</v>
       </c>
       <c r="C20">
-        <v>0.1106217286464712</v>
+        <v>0.1105509473930084</v>
       </c>
       <c r="D20">
-        <v>0.09001089077909796</v>
+        <v>0.04880411251115646</v>
       </c>
       <c r="E20">
-        <v>0.0798092453340864</v>
+        <v>0.1004145796493674</v>
       </c>
       <c r="F20">
-        <v>0.6150701616949306</v>
+        <v>0.8721191280870002</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.3726747002242377</v>
+        <v>0.7820148185883014</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.396568452656254</v>
+        <v>0.4634389312974179</v>
       </c>
       <c r="L20">
-        <v>0.3730649490906899</v>
+        <v>0.2326928416107279</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6606117588281446</v>
+        <v>1.566271397761099</v>
       </c>
       <c r="O20">
-        <v>1.712634831768241</v>
+        <v>3.033304356455943</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.826850721329123</v>
+        <v>0.7423558513435466</v>
       </c>
       <c r="C21">
-        <v>0.1169611731947882</v>
+        <v>0.1126747580807574</v>
       </c>
       <c r="D21">
-        <v>0.09877903771600671</v>
+        <v>0.05178312925306727</v>
       </c>
       <c r="E21">
-        <v>0.0868219842235014</v>
+        <v>0.1015732565439791</v>
       </c>
       <c r="F21">
-        <v>0.6588353461387157</v>
+        <v>0.8763852897762732</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.3799960184111484</v>
+        <v>0.77781453006817</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.573894359377846</v>
+        <v>0.5157760361310011</v>
       </c>
       <c r="L21">
-        <v>0.4188187157910193</v>
+        <v>0.2439601996477734</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6166633703359894</v>
+        <v>1.547587350096141</v>
       </c>
       <c r="O21">
-        <v>1.791408776927369</v>
+        <v>3.029003882809207</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.963056218584228</v>
+        <v>0.7808329971527996</v>
       </c>
       <c r="C22">
-        <v>0.1211112293690562</v>
+        <v>0.1140528365424345</v>
       </c>
       <c r="D22">
-        <v>0.1045063322650606</v>
+        <v>0.05371689714729655</v>
       </c>
       <c r="E22">
-        <v>0.09151775230604997</v>
+        <v>0.1023727140170472</v>
       </c>
       <c r="F22">
-        <v>0.6886706592495244</v>
+        <v>0.8795927435220392</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.3856116062141624</v>
+        <v>0.7753958691518648</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.690264577937171</v>
+        <v>0.5499781580379022</v>
       </c>
       <c r="L22">
-        <v>0.449105868466205</v>
+        <v>0.2514182764704032</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5890439341867229</v>
+        <v>1.535830262570833</v>
       </c>
       <c r="O22">
-        <v>1.846683792571696</v>
+        <v>3.027562782080736</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.890288858613388</v>
+        <v>0.7602872114176478</v>
       </c>
       <c r="C23">
-        <v>0.1188954759753997</v>
+        <v>0.1133182481183468</v>
       </c>
       <c r="D23">
-        <v>0.1014497313352365</v>
+        <v>0.05268602524589738</v>
       </c>
       <c r="E23">
-        <v>0.08900074432065352</v>
+        <v>0.1019421750801399</v>
       </c>
       <c r="F23">
-        <v>0.6726288925394428</v>
+        <v>0.877842524539119</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.3825354178222611</v>
+        <v>0.7766568894895869</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.628106958981533</v>
+        <v>0.5317243329693326</v>
       </c>
       <c r="L23">
-        <v>0.4329035671476049</v>
+        <v>0.2474291740567054</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.60368116063378</v>
+        <v>1.542063685384129</v>
       </c>
       <c r="O23">
-        <v>1.816820089241588</v>
+        <v>3.028206648975782</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.616168556653747</v>
+        <v>0.6826930923923555</v>
       </c>
       <c r="C24">
-        <v>0.1105181946114797</v>
+        <v>0.1105160683478132</v>
       </c>
       <c r="D24">
-        <v>0.08986749804158478</v>
+        <v>0.04875520140799239</v>
       </c>
       <c r="E24">
-        <v>0.0796964187421878</v>
+        <v>0.1003963556700462</v>
       </c>
       <c r="F24">
-        <v>0.6143744819544423</v>
+        <v>0.8720564830804065</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.3725684004460348</v>
+        <v>0.7820889833134856</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.393677139464984</v>
+        <v>0.4625834985604911</v>
       </c>
       <c r="L24">
-        <v>0.3723231166307812</v>
+        <v>0.2325102803402643</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6613480845805499</v>
+        <v>1.566584440686333</v>
       </c>
       <c r="O24">
-        <v>1.71140796635774</v>
+        <v>3.033397773225772</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.322999339589046</v>
+        <v>0.5994920678619167</v>
       </c>
       <c r="C25">
-        <v>0.1014961899535436</v>
+        <v>0.107451436002151</v>
       </c>
       <c r="D25">
-        <v>0.07734813589696898</v>
+        <v>0.04445946247204091</v>
       </c>
       <c r="E25">
-        <v>0.070096309541821</v>
+        <v>0.09891083475780604</v>
       </c>
       <c r="F25">
-        <v>0.5563167675948861</v>
+        <v>0.8676175942544475</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.3650935366421493</v>
+        <v>0.7893507933879746</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.142385407620594</v>
+        <v>0.3880098704330521</v>
       </c>
       <c r="L25">
-        <v>0.3084076485439198</v>
+        <v>0.2168255955494942</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7280181106501029</v>
+        <v>1.594982092841631</v>
       </c>
       <c r="O25">
-        <v>1.612507854936268</v>
+        <v>3.044880393637783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_222/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_222/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5386712677833714</v>
+        <v>1.108664671039378</v>
       </c>
       <c r="C2">
-        <v>0.1051590893890264</v>
+        <v>0.09484895907664992</v>
       </c>
       <c r="D2">
-        <v>0.04124891684684684</v>
+        <v>0.06809303317520232</v>
       </c>
       <c r="E2">
-        <v>0.09797392431061525</v>
+        <v>0.06335272080477239</v>
       </c>
       <c r="F2">
-        <v>0.8658998088534631</v>
+        <v>0.5171441020886007</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.7959050165789705</v>
+        <v>0.3621076045799327</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3331153853719968</v>
+        <v>0.958196708695084</v>
       </c>
       <c r="L2">
-        <v>0.2056283115882991</v>
+        <v>0.2623406713680509</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.617569122752696</v>
+        <v>0.780681333867157</v>
       </c>
       <c r="O2">
-        <v>3.05839678202031</v>
+        <v>1.550889257650852</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4977341740913062</v>
+        <v>0.9640686243509435</v>
       </c>
       <c r="C3">
-        <v>0.1035833427660435</v>
+        <v>0.09033398612718457</v>
       </c>
       <c r="D3">
-        <v>0.03904359781390809</v>
+        <v>0.061790854239824</v>
       </c>
       <c r="E3">
-        <v>0.09743708183724209</v>
+        <v>0.058962024457891</v>
       </c>
       <c r="F3">
-        <v>0.8657033429486845</v>
+        <v>0.4925794818839364</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.8011007215043549</v>
+        <v>0.3615160248210678</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2959267575989486</v>
+        <v>0.8336550341258544</v>
       </c>
       <c r="L3">
-        <v>0.1982594525952663</v>
+        <v>0.2316317993426935</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.633924489781511</v>
+        <v>0.8184776129538105</v>
       </c>
       <c r="O3">
-        <v>3.070715944059202</v>
+        <v>1.515411289254814</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4727407509763282</v>
+        <v>0.8755243074251098</v>
       </c>
       <c r="C4">
-        <v>0.1026049566044236</v>
+        <v>0.08755464522086953</v>
       </c>
       <c r="D4">
-        <v>0.03767506608364357</v>
+        <v>0.05790452944042812</v>
       </c>
       <c r="E4">
-        <v>0.09715595846729386</v>
+        <v>0.05634750678406775</v>
       </c>
       <c r="F4">
-        <v>0.86606032163413</v>
+        <v>0.4783986427025084</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.8046630018676808</v>
+        <v>0.3618162348671881</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2731019816422133</v>
+        <v>0.7572551413562678</v>
       </c>
       <c r="L4">
-        <v>0.1938435960835108</v>
+        <v>0.2129952788798448</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.644483976683105</v>
+        <v>0.8426848147380177</v>
       </c>
       <c r="O4">
-        <v>3.079838884716651</v>
+        <v>1.496508224051368</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4625921552019747</v>
+        <v>0.8394900065640059</v>
       </c>
       <c r="C5">
-        <v>0.1022035415682012</v>
+        <v>0.08641996998567691</v>
       </c>
       <c r="D5">
-        <v>0.03711376696978874</v>
+        <v>0.05631634981583744</v>
       </c>
       <c r="E5">
-        <v>0.09705361697474757</v>
+        <v>0.05530154217359495</v>
       </c>
       <c r="F5">
-        <v>0.8663259775372794</v>
+        <v>0.4728359623552763</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.8062082719799015</v>
+        <v>0.362099339845134</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2638035503759539</v>
+        <v>0.7261295031383952</v>
       </c>
       <c r="L5">
-        <v>0.1920715128021158</v>
+        <v>0.2054512075093555</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.648917129387678</v>
+        <v>0.8527953423188808</v>
       </c>
       <c r="O5">
-        <v>3.083948746751872</v>
+        <v>1.489498788908008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4609092090261413</v>
+        <v>0.8335091213243686</v>
       </c>
       <c r="C6">
-        <v>0.1021367235026247</v>
+        <v>0.0862314251592764</v>
       </c>
       <c r="D6">
-        <v>0.0370203462697134</v>
+        <v>0.05605235655624341</v>
       </c>
       <c r="E6">
-        <v>0.09703736188987477</v>
+        <v>0.05512900841364754</v>
       </c>
       <c r="F6">
-        <v>0.8663773508395991</v>
+        <v>0.4719250338491037</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.8064705181707481</v>
+        <v>0.362155886877737</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2622597409564378</v>
+        <v>0.7209613271742086</v>
       </c>
       <c r="L6">
-        <v>0.1917789181870972</v>
+        <v>0.2042014383669368</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.649661107784145</v>
+        <v>0.8544888803708117</v>
       </c>
       <c r="O6">
-        <v>3.084654878968749</v>
+        <v>1.488375906806624</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4726037350574757</v>
+        <v>0.8750381559729306</v>
       </c>
       <c r="C7">
-        <v>0.1025995539479183</v>
+        <v>0.08753935133449176</v>
       </c>
       <c r="D7">
-        <v>0.03766751079787412</v>
+        <v>0.05788312912532945</v>
       </c>
       <c r="E7">
-        <v>0.09715452875114394</v>
+        <v>0.05633332297728089</v>
       </c>
       <c r="F7">
-        <v>0.8660634176283253</v>
+        <v>0.4783227611243532</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.8046834628297326</v>
+        <v>0.3618194097977643</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2729765674920372</v>
+        <v>0.7568353501146419</v>
       </c>
       <c r="L7">
-        <v>0.1938195860272032</v>
+        <v>0.2128933384642835</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.644543237036874</v>
+        <v>0.8428201804296456</v>
       </c>
       <c r="O7">
-        <v>3.079892723548085</v>
+        <v>1.496410922993178</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5245270623259159</v>
+        <v>1.058751247756334</v>
       </c>
       <c r="C8">
-        <v>0.1046180392472067</v>
+        <v>0.09329350107521606</v>
       </c>
       <c r="D8">
-        <v>0.04049153719944343</v>
+        <v>0.0659233608708476</v>
       </c>
       <c r="E8">
-        <v>0.09777876813336306</v>
+        <v>0.06182130453062129</v>
       </c>
       <c r="F8">
-        <v>0.8657329883881104</v>
+        <v>0.5084804470910811</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.7976192937273936</v>
+        <v>0.3617621995431826</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3202911507577824</v>
+        <v>0.9152344895450994</v>
       </c>
       <c r="L8">
-        <v>0.2030650309881565</v>
+        <v>0.2517040054706285</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.623101113967246</v>
+        <v>0.793502475536584</v>
       </c>
       <c r="O8">
-        <v>3.062320980859909</v>
+        <v>1.538039728504799</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6274510899455379</v>
+        <v>1.421476427470253</v>
       </c>
       <c r="C9">
-        <v>0.1084893561268885</v>
+        <v>0.1045349012208945</v>
       </c>
       <c r="D9">
-        <v>0.04591390937511619</v>
+        <v>0.08157013480551711</v>
       </c>
       <c r="E9">
-        <v>0.09938689841987625</v>
+        <v>0.07327642693738312</v>
       </c>
       <c r="F9">
-        <v>0.8688720300209809</v>
+        <v>0.5752839214225602</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.7867171728087605</v>
+        <v>0.3672010855017049</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4131286422376093</v>
+        <v>1.226870343587052</v>
       </c>
       <c r="L9">
-        <v>0.2220544979290793</v>
+        <v>0.3297681772323244</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.585155804068846</v>
+        <v>0.704987753243083</v>
       </c>
       <c r="O9">
-        <v>3.040226325272158</v>
+        <v>1.643984341226286</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7037154811095263</v>
+        <v>1.690341933065753</v>
       </c>
       <c r="C10">
-        <v>0.1112799672338554</v>
+        <v>0.1127900303667317</v>
       </c>
       <c r="D10">
-        <v>0.04982651940346727</v>
+        <v>0.09301251797144516</v>
       </c>
       <c r="E10">
-        <v>0.1008016338701339</v>
+        <v>0.08218504167308538</v>
       </c>
       <c r="F10">
-        <v>0.873485142868283</v>
+        <v>0.6297835484925187</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.7805042750362077</v>
+        <v>0.3750010254409659</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4813499111045871</v>
+        <v>1.457156874499759</v>
       </c>
       <c r="L10">
-        <v>0.2365275647395748</v>
+        <v>0.3886418432914382</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.559775730341777</v>
+        <v>0.6453311120624834</v>
       </c>
       <c r="O10">
-        <v>3.031525887103271</v>
+        <v>1.738778496815314</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7385453508412354</v>
+        <v>1.813377648387956</v>
       </c>
       <c r="C11">
-        <v>0.1125377160015546</v>
+        <v>0.1165500380004758</v>
       </c>
       <c r="D11">
-        <v>0.05159085897007287</v>
+        <v>0.09821110156271118</v>
       </c>
       <c r="E11">
-        <v>0.1014957141737547</v>
+        <v>0.0863611669117148</v>
       </c>
       <c r="F11">
-        <v>0.8760844041170586</v>
+        <v>0.655929319520034</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.7780676722789011</v>
+        <v>0.3794741655315832</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5123847872752663</v>
+        <v>1.562377646019996</v>
       </c>
       <c r="L11">
-        <v>0.2432245889232547</v>
+        <v>0.415832268789913</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.548771592419325</v>
+        <v>0.6194477623626975</v>
       </c>
       <c r="O11">
-        <v>3.029202715278188</v>
+        <v>1.786088294984467</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7517535861377951</v>
+        <v>1.860090576217402</v>
       </c>
       <c r="C12">
-        <v>0.1130122920420931</v>
+        <v>0.1179750070148131</v>
       </c>
       <c r="D12">
-        <v>0.05225671512011587</v>
+        <v>0.1001791115735813</v>
       </c>
       <c r="E12">
-        <v>0.1017657882382466</v>
+        <v>0.0879617586089978</v>
       </c>
       <c r="F12">
-        <v>0.8771406247382529</v>
+        <v>0.6660402121810876</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.7772009957414667</v>
+        <v>0.381309795472653</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5241365198425854</v>
+        <v>1.602303132440142</v>
       </c>
       <c r="L12">
-        <v>0.2457767771812343</v>
+        <v>0.4261940638118205</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.544682453440031</v>
+        <v>0.609834885596106</v>
       </c>
       <c r="O12">
-        <v>3.028557945559186</v>
+        <v>1.804650102745313</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7489081269085887</v>
+        <v>1.85002439730934</v>
       </c>
       <c r="C13">
-        <v>0.1129101598233362</v>
+        <v>0.1176680561880445</v>
       </c>
       <c r="D13">
-        <v>0.05211341209227527</v>
+        <v>0.09975528508835652</v>
       </c>
       <c r="E13">
-        <v>0.1017073012718761</v>
+        <v>0.08761616586100018</v>
       </c>
       <c r="F13">
-        <v>0.8769099504141309</v>
+        <v>0.6638530524117954</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.7773851592540097</v>
+        <v>0.3809080102095947</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5216056058191896</v>
+        <v>1.593700640351415</v>
       </c>
       <c r="L13">
-        <v>0.2452264001988311</v>
+        <v>0.4239594483233304</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.545559657896682</v>
+        <v>0.6118966679515969</v>
       </c>
       <c r="O13">
-        <v>3.028686359774269</v>
+        <v>1.800622988362306</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7396316254565534</v>
+        <v>1.817218200831178</v>
       </c>
       <c r="C14">
-        <v>0.1125767939738012</v>
+        <v>0.1166672455244111</v>
       </c>
       <c r="D14">
-        <v>0.05164568483122878</v>
+        <v>0.09837302036579842</v>
       </c>
       <c r="E14">
-        <v>0.1015177883393719</v>
+        <v>0.0864924556600748</v>
       </c>
       <c r="F14">
-        <v>0.8761698586956754</v>
+        <v>0.6567568471632583</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.7779952478446859</v>
+        <v>0.3796222909840168</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5133516228709993</v>
+        <v>1.565660638346571</v>
       </c>
       <c r="L14">
-        <v>0.2434342354853953</v>
+        <v>0.4166833902749829</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.548433615247713</v>
+        <v>0.6186530771576635</v>
       </c>
       <c r="O14">
-        <v>3.029144961230287</v>
+        <v>1.787602162102047</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7339519419436442</v>
+        <v>1.797139878415805</v>
       </c>
       <c r="C15">
-        <v>0.1123723749368679</v>
+        <v>0.116054382308441</v>
       </c>
       <c r="D15">
-        <v>0.05135889309566721</v>
+        <v>0.09752627906604516</v>
       </c>
       <c r="E15">
-        <v>0.1014026485114137</v>
+        <v>0.08580669252367557</v>
       </c>
       <c r="F15">
-        <v>0.87572589740806</v>
+        <v>0.6524380460304116</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.7783762384658885</v>
+        <v>0.3788534797243628</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5082957368846337</v>
+        <v>1.548496270473748</v>
       </c>
       <c r="L15">
-        <v>0.2423385857288167</v>
+        <v>0.412235311887116</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.550204141776784</v>
+        <v>0.6228163829504121</v>
       </c>
       <c r="O15">
-        <v>3.029456464170408</v>
+        <v>1.779712106575232</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7014419558196607</v>
+        <v>1.682317355538856</v>
       </c>
       <c r="C16">
-        <v>0.1111975328245194</v>
+        <v>0.1125444380609082</v>
       </c>
       <c r="D16">
-        <v>0.04971090081737373</v>
+        <v>0.09267267634651688</v>
       </c>
       <c r="E16">
-        <v>0.1007572885719448</v>
+        <v>0.08191472744970696</v>
       </c>
       <c r="F16">
-        <v>0.873325345270672</v>
+        <v>0.628103394337046</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.7806713520751742</v>
+        <v>0.3747280422133059</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4793216714207915</v>
+        <v>1.450290942196375</v>
       </c>
       <c r="L16">
-        <v>0.2360921667980733</v>
+        <v>0.3868736621821114</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.560505773939872</v>
+        <v>0.647048584389351</v>
       </c>
       <c r="O16">
-        <v>3.031710597432664</v>
+        <v>1.735774689228691</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.681532637566562</v>
+        <v>1.612075761686896</v>
       </c>
       <c r="C17">
-        <v>0.1104737895485854</v>
+        <v>0.1103927206274236</v>
       </c>
       <c r="D17">
-        <v>0.04869591416968433</v>
+        <v>0.08969371052630493</v>
       </c>
       <c r="E17">
-        <v>0.1003743021107226</v>
+        <v>0.07955975923832881</v>
       </c>
       <c r="F17">
-        <v>0.8719808859547271</v>
+        <v>0.6135322300398016</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.7821791189718752</v>
+        <v>0.3724401661512573</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4615467685254089</v>
+        <v>1.390173340341221</v>
       </c>
       <c r="L17">
-        <v>0.2322891009502683</v>
+        <v>0.3714243230606655</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.566964180069243</v>
+        <v>0.6622412737845735</v>
       </c>
       <c r="O17">
-        <v>3.033512048426388</v>
+        <v>1.709923770450075</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6700942471656504</v>
+        <v>1.571742017327722</v>
       </c>
       <c r="C18">
-        <v>0.1100564102531081</v>
+        <v>0.1091555230180532</v>
       </c>
       <c r="D18">
-        <v>0.04811066097736472</v>
+        <v>0.08797964211540688</v>
       </c>
       <c r="E18">
-        <v>0.1001587740178742</v>
+        <v>0.07821678332208748</v>
       </c>
       <c r="F18">
-        <v>0.8712547240074144</v>
+        <v>0.605277712549487</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.7830830260889599</v>
+        <v>0.3712107420457684</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4513232142533354</v>
+        <v>1.355637890174449</v>
       </c>
       <c r="L18">
-        <v>0.2301123346781395</v>
+        <v>0.3625763004095006</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.570729839693519</v>
+        <v>0.6710972934181187</v>
       </c>
       <c r="O18">
-        <v>3.034702067418607</v>
+        <v>1.695446324637686</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6662236472069765</v>
+        <v>1.558096764058575</v>
       </c>
       <c r="C19">
-        <v>0.1099149043042829</v>
+        <v>0.1087366868315982</v>
       </c>
       <c r="D19">
-        <v>0.04791225445403313</v>
+        <v>0.08739916613439647</v>
       </c>
       <c r="E19">
-        <v>0.1000866173657435</v>
+        <v>0.07776401487110718</v>
       </c>
       <c r="F19">
-        <v>0.8710169556729284</v>
+        <v>0.6025041354711007</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.7833953739392854</v>
+        <v>0.3708090791406811</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4478617298171343</v>
+        <v>1.343951681163873</v>
       </c>
       <c r="L19">
-        <v>0.2293771523636821</v>
+        <v>0.3595868482559013</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.57201357781163</v>
+        <v>0.6741157447239408</v>
       </c>
       <c r="O19">
-        <v>3.035131418195959</v>
+        <v>1.690610410553262</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6836506864755734</v>
+        <v>1.619546005440384</v>
       </c>
       <c r="C20">
-        <v>0.1105509473930084</v>
+        <v>0.110621728646386</v>
       </c>
       <c r="D20">
-        <v>0.04880411251115646</v>
+        <v>0.09001089077926849</v>
       </c>
       <c r="E20">
-        <v>0.1004145796493674</v>
+        <v>0.0798092453340864</v>
       </c>
       <c r="F20">
-        <v>0.8721191280870002</v>
+        <v>0.6150701616949306</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.7820148185883014</v>
+        <v>0.3726747002242377</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4634389312974179</v>
+        <v>1.39656845265614</v>
       </c>
       <c r="L20">
-        <v>0.2326928416107279</v>
+        <v>0.3730649490906757</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.566271397761099</v>
+        <v>0.6606117588281473</v>
       </c>
       <c r="O20">
-        <v>3.033304356455943</v>
+        <v>1.712634831768128</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7423558513435466</v>
+        <v>1.826850721328981</v>
       </c>
       <c r="C21">
-        <v>0.1126747580807574</v>
+        <v>0.1169611731945039</v>
       </c>
       <c r="D21">
-        <v>0.05178312925306727</v>
+        <v>0.0987790377161275</v>
       </c>
       <c r="E21">
-        <v>0.1015732565439791</v>
+        <v>0.0868219842235014</v>
       </c>
       <c r="F21">
-        <v>0.8763852897762732</v>
+        <v>0.6588353461387157</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.77781453006817</v>
+        <v>0.3799960184111484</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5157760361310011</v>
+        <v>1.573894359377874</v>
       </c>
       <c r="L21">
-        <v>0.2439601996477734</v>
+        <v>0.4188187157910477</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.547587350096141</v>
+        <v>0.6166633703359636</v>
       </c>
       <c r="O21">
-        <v>3.029003882809207</v>
+        <v>1.791408776927369</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7808329971527996</v>
+        <v>1.963056218584313</v>
       </c>
       <c r="C22">
-        <v>0.1140528365424345</v>
+        <v>0.1211112293691841</v>
       </c>
       <c r="D22">
-        <v>0.05371689714729655</v>
+        <v>0.1045063322652311</v>
       </c>
       <c r="E22">
-        <v>0.1023727140170472</v>
+        <v>0.09151775230603931</v>
       </c>
       <c r="F22">
-        <v>0.8795927435220392</v>
+        <v>0.6886706592495244</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.7753958691518648</v>
+        <v>0.3856116062141837</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5499781580379022</v>
+        <v>1.690264577937285</v>
       </c>
       <c r="L22">
-        <v>0.2514182764704032</v>
+        <v>0.4491058684662619</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.535830262570833</v>
+        <v>0.58904393418673</v>
       </c>
       <c r="O22">
-        <v>3.027562782080736</v>
+        <v>1.846683792571724</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7602872114176478</v>
+        <v>1.890288858613388</v>
       </c>
       <c r="C23">
-        <v>0.1133182481183468</v>
+        <v>0.1188954759754921</v>
       </c>
       <c r="D23">
-        <v>0.05268602524589738</v>
+        <v>0.1014497313352294</v>
       </c>
       <c r="E23">
-        <v>0.1019421750801399</v>
+        <v>0.08900074432065352</v>
       </c>
       <c r="F23">
-        <v>0.877842524539119</v>
+        <v>0.6726288925394428</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.7766568894895869</v>
+        <v>0.3825354178222611</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5317243329693326</v>
+        <v>1.628106958981448</v>
       </c>
       <c r="L23">
-        <v>0.2474291740567054</v>
+        <v>0.4329035671475623</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.542063685384129</v>
+        <v>0.6036811606337684</v>
       </c>
       <c r="O23">
-        <v>3.028206648975782</v>
+        <v>1.816820089241531</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6826930923923555</v>
+        <v>1.616168556653747</v>
       </c>
       <c r="C24">
-        <v>0.1105160683478132</v>
+        <v>0.1105181946114797</v>
       </c>
       <c r="D24">
-        <v>0.04875520140799239</v>
+        <v>0.08986749804142136</v>
       </c>
       <c r="E24">
-        <v>0.1003963556700462</v>
+        <v>0.07969641874219136</v>
       </c>
       <c r="F24">
-        <v>0.8720564830804065</v>
+        <v>0.614374481954421</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.7820889833134856</v>
+        <v>0.3725684004460064</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4625834985604911</v>
+        <v>1.393677139465183</v>
       </c>
       <c r="L24">
-        <v>0.2325102803402643</v>
+        <v>0.3723231166307528</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.566584440686333</v>
+        <v>0.6613480845805357</v>
       </c>
       <c r="O24">
-        <v>3.033397773225772</v>
+        <v>1.711407966357797</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5994920678619167</v>
+        <v>1.322999339589046</v>
       </c>
       <c r="C25">
-        <v>0.107451436002151</v>
+        <v>0.1014961899532238</v>
       </c>
       <c r="D25">
-        <v>0.04445946247204091</v>
+        <v>0.07734813589701162</v>
       </c>
       <c r="E25">
-        <v>0.09891083475780604</v>
+        <v>0.07009630954181745</v>
       </c>
       <c r="F25">
-        <v>0.8676175942544475</v>
+        <v>0.5563167675948719</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.7893507933879746</v>
+        <v>0.3650935366421564</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3880098704330521</v>
+        <v>1.142385407620594</v>
       </c>
       <c r="L25">
-        <v>0.2168255955494942</v>
+        <v>0.308407648543934</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.594982092841631</v>
+        <v>0.7280181106501189</v>
       </c>
       <c r="O25">
-        <v>3.044880393637783</v>
+        <v>1.612507854936297</v>
       </c>
     </row>
   </sheetData>
